--- a/Planning/Gantt Chart.xlsx
+++ b/Planning/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Documents\GitHub\ITPR7.508-Business-Application-Programming-Semester-One-2024\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF664B85-FA7F-4970-B18E-497FAF6EF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A1C59-37A1-4E88-9635-0F0F32665B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:BN23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="68"/>
@@ -2740,11 +2740,11 @@
         <v>45370</v>
       </c>
       <c r="J14" s="70">
-        <v>45386</v>
+        <v>45394</v>
       </c>
       <c r="K14" s="41">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2809,7 +2809,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="69">
         <v>45369</v>
@@ -2824,8 +2824,12 @@
       <c r="I15" s="69">
         <v>45383</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="70">
+        <v>45399</v>
+      </c>
+      <c r="K15" s="41">
+        <v>16</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2889,7 +2893,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F16" s="69">
         <f>F14</f>
@@ -2906,10 +2910,12 @@
         <f>F16</f>
         <v>45362</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="41" t="str">
+      <c r="J16" s="70">
+        <v>45403</v>
+      </c>
+      <c r="K16" s="41">
         <f t="shared" si="6"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2974,7 +2980,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="69">
         <v>45412</v>
@@ -2986,11 +2992,15 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="41" t="str">
+      <c r="I17" s="69">
+        <v>45404</v>
+      </c>
+      <c r="J17" s="70">
+        <v>45404</v>
+      </c>
+      <c r="K17" s="41">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
